--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value570.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value570.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6498886371278368</v>
+        <v>1.17821729183197</v>
       </c>
       <c r="B1">
-        <v>1.803295191226167</v>
+        <v>2.359478712081909</v>
       </c>
       <c r="C1">
-        <v>2.71511399404592</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.638727524549211</v>
+        <v>2.070424556732178</v>
       </c>
       <c r="E1">
-        <v>1.140755464580633</v>
+        <v>1.034740924835205</v>
       </c>
     </row>
   </sheetData>
